--- a/calculation-engine/engine-tests/engine-it-performance/src/test/resources/datamodel/query/QUERY_10set_100times.xlsx
+++ b/calculation-engine/engine-tests/engine-it-performance/src/test/resources/datamodel/query/QUERY_10set_100times.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>QUERY</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,9 +354,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -368,19 +366,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" t="e">
+        <f ca="1">QUERY("ShuffledDataSet10","ShuffledDataSet10_100_local")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="e">
-        <f ca="1">QUERY("ShuffledDataSet10","ShuffledDataSet10_100_local")</f>
+        <f t="shared" ref="A2:A65" ca="1" si="0">QUERY("ShuffledDataSet10","ShuffledDataSet10_100_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="e">
-        <f t="shared" ref="A3:A66" ca="1" si="0">QUERY("ShuffledDataSet10","ShuffledDataSet10_100_local")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -758,13 +757,13 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="A66:A100" ca="1" si="1">QUERY("ShuffledDataSet10","ShuffledDataSet10_100_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="e">
-        <f t="shared" ref="A67:A101" ca="1" si="1">QUERY("ShuffledDataSet10","ShuffledDataSet10_100_local")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -962,12 +961,6 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>

--- a/calculation-engine/engine-tests/engine-it-performance/src/test/resources/datamodel/query/QUERY_10set_100times.xlsx
+++ b/calculation-engine/engine-tests/engine-it-performance/src/test/resources/datamodel/query/QUERY_10set_100times.xlsx
@@ -4,17 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1455" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,24 +352,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="e">
-        <f ca="1">QUERY("ShuffledDataSet10","ShuffledDataSet10_100_local")</f>
+        <f ca="1">INDEX(QUERY("ShuffledDataSet10","ShuffledDataSet10_100_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="e">
-        <f t="shared" ref="A2:A65" ca="1" si="0">QUERY("ShuffledDataSet10","ShuffledDataSet10_100_local")</f>
+        <f t="shared" ref="A2:A65" ca="1" si="0">INDEX(QUERY("ShuffledDataSet10","ShuffledDataSet10_100_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -757,7 +751,7 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="e">
-        <f t="shared" ref="A66:A100" ca="1" si="1">QUERY("ShuffledDataSet10","ShuffledDataSet10_100_local")</f>
+        <f t="shared" ref="A66:A100" ca="1" si="1">INDEX(QUERY("ShuffledDataSet10","ShuffledDataSet10_100_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
